--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220508_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220508_110202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -676,6 +676,9 @@
     <t>내일은 미스터트롯 결승전 베스트</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>YG</t>
   </si>
   <si>
@@ -703,9 +706,6 @@
     <t>빅플래닛메이드</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>기타</t>
   </si>
   <si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>생각</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>FNC</t>
@@ -1187,6 +1190,12 @@
       <c r="F2" t="s">
         <v>170</v>
       </c>
+      <c r="G2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1208,10 +1217,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1234,7 +1243,7 @@
         <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
         <v>230</v>
@@ -1260,10 +1269,10 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1286,7 +1295,7 @@
         <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>230</v>
@@ -1312,7 +1321,7 @@
         <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
         <v>230</v>
@@ -1338,7 +1347,7 @@
         <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
         <v>230</v>
@@ -1364,7 +1373,7 @@
         <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H9" t="s">
         <v>230</v>
@@ -1390,10 +1399,10 @@
         <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1416,7 +1425,7 @@
         <v>174</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H11" t="s">
         <v>230</v>
@@ -1442,7 +1451,7 @@
         <v>176</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H12" t="s">
         <v>230</v>
@@ -1468,7 +1477,7 @@
         <v>177</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
         <v>230</v>
@@ -1494,7 +1503,7 @@
         <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H14" t="s">
         <v>230</v>
@@ -1520,10 +1529,10 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1546,7 +1555,7 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H16" t="s">
         <v>230</v>
@@ -1572,7 +1581,7 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s">
         <v>230</v>
@@ -1598,7 +1607,7 @@
         <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H18" t="s">
         <v>230</v>
@@ -1624,7 +1633,7 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H19" t="s">
         <v>230</v>
@@ -1650,7 +1659,7 @@
         <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H20" t="s">
         <v>230</v>
@@ -1702,7 +1711,7 @@
         <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H22" t="s">
         <v>230</v>
@@ -1754,7 +1763,7 @@
         <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H24" t="s">
         <v>230</v>
@@ -1805,6 +1814,12 @@
       <c r="F26" t="s">
         <v>170</v>
       </c>
+      <c r="G26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -1826,7 +1841,7 @@
         <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>230</v>
@@ -1852,7 +1867,7 @@
         <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>230</v>
@@ -1878,7 +1893,7 @@
         <v>174</v>
       </c>
       <c r="G29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>230</v>
@@ -1904,10 +1919,10 @@
         <v>179</v>
       </c>
       <c r="G30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1930,7 +1945,7 @@
         <v>174</v>
       </c>
       <c r="G31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
         <v>230</v>
@@ -2008,10 +2023,10 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2059,6 +2074,12 @@
       <c r="F36" t="s">
         <v>170</v>
       </c>
+      <c r="G36" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
@@ -2080,7 +2101,7 @@
         <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H37" t="s">
         <v>230</v>
@@ -2132,10 +2153,10 @@
         <v>182</v>
       </c>
       <c r="G39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2262,10 +2283,10 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2340,10 +2361,10 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2730,10 +2751,10 @@
         <v>194</v>
       </c>
       <c r="G62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2807,6 +2828,12 @@
       <c r="F65" t="s">
         <v>170</v>
       </c>
+      <c r="G65" t="s">
+        <v>220</v>
+      </c>
+      <c r="H65" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
@@ -2880,10 +2907,10 @@
         <v>197</v>
       </c>
       <c r="G68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3036,10 +3063,10 @@
         <v>201</v>
       </c>
       <c r="G74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3140,7 +3167,7 @@
         <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H78" t="s">
         <v>230</v>
@@ -3217,6 +3244,12 @@
       <c r="F81" t="s">
         <v>207</v>
       </c>
+      <c r="G81" t="s">
+        <v>252</v>
+      </c>
+      <c r="H81" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
@@ -3316,7 +3349,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H85" t="s">
         <v>230</v>
@@ -3342,10 +3375,10 @@
         <v>211</v>
       </c>
       <c r="G86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3393,6 +3426,12 @@
       <c r="F88" t="s">
         <v>170</v>
       </c>
+      <c r="G88" t="s">
+        <v>220</v>
+      </c>
+      <c r="H88" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
@@ -3413,6 +3452,12 @@
       <c r="F89" t="s">
         <v>213</v>
       </c>
+      <c r="G89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H89" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
@@ -3512,7 +3557,7 @@
         <v>214</v>
       </c>
       <c r="G93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H93" t="s">
         <v>230</v>
@@ -3538,7 +3583,7 @@
         <v>215</v>
       </c>
       <c r="G94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H94" t="s">
         <v>230</v>
@@ -3616,7 +3661,7 @@
         <v>217</v>
       </c>
       <c r="G97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H97" t="s">
         <v>230</v>
@@ -3667,6 +3712,12 @@
       <c r="F99" t="s">
         <v>107</v>
       </c>
+      <c r="G99" t="s">
+        <v>233</v>
+      </c>
+      <c r="H99" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
@@ -3714,10 +3765,10 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220508_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220508_110202.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-08</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220508_110202.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220508_110202.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -722,9 +722,6 @@
   </si>
   <si>
     <t>WAKE ONE</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>EDAM</t>
@@ -2179,7 +2176,7 @@
         <v>183</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H40" t="s">
         <v>230</v>
@@ -2205,7 +2202,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H41" t="s">
         <v>230</v>
@@ -2257,7 +2254,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H43" t="s">
         <v>230</v>
@@ -2309,7 +2306,7 @@
         <v>185</v>
       </c>
       <c r="G45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H45" t="s">
         <v>230</v>
@@ -2335,7 +2332,7 @@
         <v>186</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H46" t="s">
         <v>230</v>
@@ -2387,7 +2384,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H48" t="s">
         <v>230</v>
@@ -2413,7 +2410,7 @@
         <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H49" t="s">
         <v>230</v>
@@ -2439,7 +2436,7 @@
         <v>188</v>
       </c>
       <c r="G50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H50" t="s">
         <v>230</v>
@@ -2465,7 +2462,7 @@
         <v>189</v>
       </c>
       <c r="G51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H51" t="s">
         <v>230</v>
@@ -2491,10 +2488,10 @@
         <v>190</v>
       </c>
       <c r="G52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2517,7 +2514,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H53" t="s">
         <v>230</v>
@@ -2569,7 +2566,7 @@
         <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H55" t="s">
         <v>230</v>
@@ -2647,7 +2644,7 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
         <v>230</v>
@@ -2673,10 +2670,10 @@
         <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2699,7 +2696,7 @@
         <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H60" t="s">
         <v>230</v>
@@ -2725,7 +2722,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H61" t="s">
         <v>230</v>
@@ -2803,7 +2800,7 @@
         <v>188</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H64" t="s">
         <v>230</v>
@@ -2855,7 +2852,7 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
         <v>230</v>
@@ -2881,7 +2878,7 @@
         <v>196</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H67" t="s">
         <v>230</v>
@@ -2959,7 +2956,7 @@
         <v>198</v>
       </c>
       <c r="G70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H70" t="s">
         <v>230</v>
@@ -3011,7 +3008,7 @@
         <v>199</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H72" t="s">
         <v>230</v>
@@ -3089,7 +3086,7 @@
         <v>202</v>
       </c>
       <c r="G75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H75" t="s">
         <v>230</v>
@@ -3115,7 +3112,7 @@
         <v>203</v>
       </c>
       <c r="G76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H76" t="s">
         <v>230</v>
@@ -3193,10 +3190,10 @@
         <v>206</v>
       </c>
       <c r="G79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3219,7 +3216,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H80" t="s">
         <v>230</v>
@@ -3245,7 +3242,7 @@
         <v>207</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H81" t="s">
         <v>230</v>
@@ -3297,7 +3294,7 @@
         <v>209</v>
       </c>
       <c r="G83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H83" t="s">
         <v>230</v>
@@ -3323,7 +3320,7 @@
         <v>210</v>
       </c>
       <c r="G84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H84" t="s">
         <v>230</v>
@@ -3349,7 +3346,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H85" t="s">
         <v>230</v>
@@ -3453,7 +3450,7 @@
         <v>213</v>
       </c>
       <c r="G89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H89" t="s">
         <v>230</v>
@@ -3505,7 +3502,7 @@
         <v>182</v>
       </c>
       <c r="G91" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H91" t="s">
         <v>230</v>
@@ -3583,7 +3580,7 @@
         <v>215</v>
       </c>
       <c r="G94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H94" t="s">
         <v>230</v>
@@ -3635,7 +3632,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" t="s">
         <v>230</v>
@@ -3661,7 +3658,7 @@
         <v>217</v>
       </c>
       <c r="G97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H97" t="s">
         <v>230</v>
@@ -3687,7 +3684,7 @@
         <v>218</v>
       </c>
       <c r="G98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H98" t="s">
         <v>230</v>
@@ -3739,7 +3736,7 @@
         <v>219</v>
       </c>
       <c r="G100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H100" t="s">
         <v>230</v>
